--- a/static/files/文献2.xlsx
+++ b/static/files/文献2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\A_web_design\resource\root\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\A_web_design\www.yunjing.com\static\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73377ACF-589A-4B11-A0E6-5EC0CDFB6343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC5ECDCE-2A40-46C0-BE54-BC71932F523D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="230">
   <si>
     <t>朝代</t>
   </si>
@@ -3379,9 +3379,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3415,12 +3412,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3428,6 +3419,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3641,13 +3641,185 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>222</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="95250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{797D2379-BC20-496F-89BF-5CDE6A0ACB1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="625078" y="27503438"/>
+          <a:ext cx="95250" cy="95250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>224</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="95250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27593433-29A5-4B85-904E-551464A09296}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="625078" y="27860625"/>
+          <a:ext cx="95250" cy="95250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>225</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="95250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A5554B4-D7F8-41CE-8F2E-1AF52CCACD03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="625078" y="28039219"/>
+          <a:ext cx="95250" cy="95250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="95250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E9BF10E-C48F-410D-9C61-9A79C889B8AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="625078" y="28217813"/>
+          <a:ext cx="95250" cy="95250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3685,9 +3857,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3720,26 +3892,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3772,26 +3927,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3965,10 +4103,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D116"/>
+  <dimension ref="A1:D231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="64" zoomScaleNormal="107" workbookViewId="0">
-      <selection activeCell="B94" sqref="B94"/>
+    <sheetView tabSelected="1" topLeftCell="A157" zoomScale="64" zoomScaleNormal="107" workbookViewId="0">
+      <selection activeCell="A117" sqref="A117:D231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3979,27 +4117,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -4007,11 +4145,11 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="18"/>
+      <c r="B3" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -4019,11 +4157,11 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="28" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="8" t="s">
+      <c r="A4" s="18"/>
+      <c r="B4" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -4031,13 +4169,13 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="28" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -4045,11 +4183,11 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="8" t="s">
+      <c r="A6" s="18"/>
+      <c r="B6" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -4057,8 +4195,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="28" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="18"/>
+      <c r="B7" s="7" t="s">
         <v>124</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -4069,8 +4207,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="8" t="s">
+      <c r="A8" s="18"/>
+      <c r="B8" s="7" t="s">
         <v>125</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -4081,8 +4219,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="28" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="18"/>
+      <c r="B9" s="4" t="s">
         <v>126</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -4093,8 +4231,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="8" t="s">
+      <c r="A10" s="18"/>
+      <c r="B10" s="7" t="s">
         <v>127</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -4105,8 +4243,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="28" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="8" t="s">
+      <c r="A11" s="18"/>
+      <c r="B11" s="7" t="s">
         <v>128</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -4120,10 +4258,10 @@
       <c r="A12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -4131,10 +4269,10 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>130</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -4145,28 +4283,28 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="28" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="11" t="s">
+      <c r="A14" s="18"/>
+      <c r="B14" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="8" t="s">
+      <c r="A15" s="18"/>
+      <c r="B15" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
     </row>
     <row r="16" spans="1:4" ht="28" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="8" t="s">
+      <c r="A16" s="18"/>
+      <c r="B16" s="7" t="s">
         <v>133</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -4177,8 +4315,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="8" t="s">
+      <c r="A17" s="18"/>
+      <c r="B17" s="7" t="s">
         <v>134</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -4189,8 +4327,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="28" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="8" t="s">
+      <c r="A18" s="18"/>
+      <c r="B18" s="7" t="s">
         <v>135</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -4201,8 +4339,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="8" t="s">
+      <c r="A19" s="18"/>
+      <c r="B19" s="7" t="s">
         <v>136</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -4213,8 +4351,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="28" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="8" t="s">
+      <c r="A20" s="18"/>
+      <c r="B20" s="7" t="s">
         <v>137</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -4225,8 +4363,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="28" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="8" t="s">
+      <c r="A21" s="18"/>
+      <c r="B21" s="7" t="s">
         <v>138</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -4237,8 +4375,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="28" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="8" t="s">
+      <c r="A22" s="18"/>
+      <c r="B22" s="7" t="s">
         <v>139</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -4249,8 +4387,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="28" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="8" t="s">
+      <c r="A23" s="18"/>
+      <c r="B23" s="7" t="s">
         <v>140</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -4261,8 +4399,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="28" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="8" t="s">
+      <c r="A24" s="18"/>
+      <c r="B24" s="7" t="s">
         <v>141</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -4273,8 +4411,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="28" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="12" t="s">
+      <c r="A25" s="18"/>
+      <c r="B25" s="11" t="s">
         <v>142</v>
       </c>
       <c r="C25" s="3" t="s">
@@ -4285,8 +4423,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="8" t="s">
+      <c r="A26" s="18"/>
+      <c r="B26" s="7" t="s">
         <v>143</v>
       </c>
       <c r="C26" s="3" t="s">
@@ -4297,8 +4435,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="13" t="s">
+      <c r="A27" s="18"/>
+      <c r="B27" s="12" t="s">
         <v>144</v>
       </c>
       <c r="C27" s="3" t="s">
@@ -4309,8 +4447,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="8" t="s">
+      <c r="A28" s="18"/>
+      <c r="B28" s="7" t="s">
         <v>145</v>
       </c>
       <c r="C28" s="3" t="s">
@@ -4321,8 +4459,8 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="28" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="8" t="s">
+      <c r="A29" s="18"/>
+      <c r="B29" s="7" t="s">
         <v>146</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -4333,8 +4471,8 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="13" t="s">
+      <c r="A30" s="18"/>
+      <c r="B30" s="12" t="s">
         <v>147</v>
       </c>
       <c r="C30" s="3" t="s">
@@ -4345,8 +4483,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="8" t="s">
+      <c r="A31" s="18"/>
+      <c r="B31" s="7" t="s">
         <v>148</v>
       </c>
       <c r="C31" s="3" t="s">
@@ -4357,8 +4495,8 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="28" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="8" t="s">
+      <c r="A32" s="18"/>
+      <c r="B32" s="7" t="s">
         <v>149</v>
       </c>
       <c r="C32" s="3" t="s">
@@ -4369,8 +4507,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="12" t="s">
+      <c r="A33" s="18"/>
+      <c r="B33" s="11" t="s">
         <v>150</v>
       </c>
       <c r="C33" s="3" t="s">
@@ -4381,8 +4519,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="12" t="s">
+      <c r="A34" s="18"/>
+      <c r="B34" s="11" t="s">
         <v>151</v>
       </c>
       <c r="C34" s="3" t="s">
@@ -4393,8 +4531,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="8" t="s">
+      <c r="A35" s="18"/>
+      <c r="B35" s="7" t="s">
         <v>152</v>
       </c>
       <c r="C35" s="3" t="s">
@@ -4405,8 +4543,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="12" t="s">
+      <c r="A36" s="18"/>
+      <c r="B36" s="11" t="s">
         <v>153</v>
       </c>
       <c r="C36" s="3" t="s">
@@ -4417,8 +4555,8 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="8" t="s">
+      <c r="A37" s="18"/>
+      <c r="B37" s="7" t="s">
         <v>154</v>
       </c>
       <c r="C37" s="3" t="s">
@@ -4429,10 +4567,10 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="7" t="s">
         <v>155</v>
       </c>
       <c r="C38" s="3" t="s">
@@ -4443,8 +4581,8 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="8" t="s">
+      <c r="A39" s="18"/>
+      <c r="B39" s="7" t="s">
         <v>156</v>
       </c>
       <c r="C39" s="3" t="s">
@@ -4455,8 +4593,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="8" t="s">
+      <c r="A40" s="18"/>
+      <c r="B40" s="7" t="s">
         <v>157</v>
       </c>
       <c r="C40" s="3" t="s">
@@ -4467,8 +4605,8 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="8" t="s">
+      <c r="A41" s="18"/>
+      <c r="B41" s="7" t="s">
         <v>158</v>
       </c>
       <c r="C41" s="3" t="s">
@@ -4479,8 +4617,8 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="8" t="s">
+      <c r="A42" s="18"/>
+      <c r="B42" s="7" t="s">
         <v>159</v>
       </c>
       <c r="C42" s="3" t="s">
@@ -4491,10 +4629,10 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="28" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="7" t="s">
         <v>160</v>
       </c>
       <c r="C43" s="3" t="s">
@@ -4505,8 +4643,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="8" t="s">
+      <c r="A44" s="18"/>
+      <c r="B44" s="7" t="s">
         <v>161</v>
       </c>
       <c r="C44" s="3" t="s">
@@ -4517,8 +4655,8 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="8" t="s">
+      <c r="A45" s="18"/>
+      <c r="B45" s="7" t="s">
         <v>162</v>
       </c>
       <c r="C45" s="3" t="s">
@@ -4529,8 +4667,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="8" t="s">
+      <c r="A46" s="18"/>
+      <c r="B46" s="7" t="s">
         <v>163</v>
       </c>
       <c r="C46" s="3" t="s">
@@ -4541,8 +4679,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="13" t="s">
+      <c r="A47" s="18"/>
+      <c r="B47" s="12" t="s">
         <v>164</v>
       </c>
       <c r="C47" s="3" t="s">
@@ -4553,8 +4691,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="28" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-      <c r="B48" s="8" t="s">
+      <c r="A48" s="18"/>
+      <c r="B48" s="7" t="s">
         <v>165</v>
       </c>
       <c r="C48" s="3" t="s">
@@ -4565,8 +4703,8 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="8" t="s">
+      <c r="A49" s="18"/>
+      <c r="B49" s="7" t="s">
         <v>166</v>
       </c>
       <c r="C49" s="3" t="s">
@@ -4577,8 +4715,8 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="13" t="s">
+      <c r="A50" s="18"/>
+      <c r="B50" s="12" t="s">
         <v>167</v>
       </c>
       <c r="C50" s="3" t="s">
@@ -4589,8 +4727,8 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
-      <c r="B51" s="8" t="s">
+      <c r="A51" s="18"/>
+      <c r="B51" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C51" s="3" t="s">
@@ -4601,8 +4739,8 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="28" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
-      <c r="B52" s="8" t="s">
+      <c r="A52" s="18"/>
+      <c r="B52" s="7" t="s">
         <v>169</v>
       </c>
       <c r="C52" s="3" t="s">
@@ -4613,8 +4751,8 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
-      <c r="B53" s="8" t="s">
+      <c r="A53" s="18"/>
+      <c r="B53" s="7" t="s">
         <v>170</v>
       </c>
       <c r="C53" s="3" t="s">
@@ -4625,8 +4763,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
-      <c r="B54" s="8" t="s">
+      <c r="A54" s="18"/>
+      <c r="B54" s="7" t="s">
         <v>171</v>
       </c>
       <c r="C54" s="3" t="s">
@@ -4637,8 +4775,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="28" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
-      <c r="B55" s="8" t="s">
+      <c r="A55" s="18"/>
+      <c r="B55" s="7" t="s">
         <v>172</v>
       </c>
       <c r="C55" s="3" t="s">
@@ -4649,8 +4787,8 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
-      <c r="B56" s="8" t="s">
+      <c r="A56" s="18"/>
+      <c r="B56" s="7" t="s">
         <v>173</v>
       </c>
       <c r="C56" s="3" t="s">
@@ -4661,8 +4799,8 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="28" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
-      <c r="B57" s="8" t="s">
+      <c r="A57" s="18"/>
+      <c r="B57" s="7" t="s">
         <v>174</v>
       </c>
       <c r="C57" s="3" t="s">
@@ -4673,8 +4811,8 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
-      <c r="B58" s="8" t="s">
+      <c r="A58" s="18"/>
+      <c r="B58" s="7" t="s">
         <v>175</v>
       </c>
       <c r="C58" s="3" t="s">
@@ -4685,8 +4823,8 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="4"/>
-      <c r="B59" s="8" t="s">
+      <c r="A59" s="18"/>
+      <c r="B59" s="7" t="s">
         <v>176</v>
       </c>
       <c r="C59" s="3" t="s">
@@ -4697,8 +4835,8 @@
       </c>
     </row>
     <row r="60" spans="1:4" ht="28" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
-      <c r="B60" s="8" t="s">
+      <c r="A60" s="18"/>
+      <c r="B60" s="7" t="s">
         <v>177</v>
       </c>
       <c r="C60" s="3" t="s">
@@ -4709,8 +4847,8 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="4"/>
-      <c r="B61" s="8" t="s">
+      <c r="A61" s="18"/>
+      <c r="B61" s="7" t="s">
         <v>178</v>
       </c>
       <c r="C61" s="3" t="s">
@@ -4721,8 +4859,8 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
-      <c r="B62" s="13" t="s">
+      <c r="A62" s="18"/>
+      <c r="B62" s="12" t="s">
         <v>179</v>
       </c>
       <c r="C62" s="3" t="s">
@@ -4733,628 +4871,1998 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="14" t="s">
+      <c r="A63" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="B63" s="12" t="s">
+      <c r="B63" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="C63" s="15" t="s">
+      <c r="C63" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="D63" s="16" t="s">
+      <c r="D63" s="13" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="14"/>
-      <c r="B64" s="12" t="s">
+      <c r="A64" s="19"/>
+      <c r="B64" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="C64" s="17" t="s">
+      <c r="C64" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="D64" s="14" t="s">
+      <c r="D64" s="19" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="14"/>
-      <c r="B65" s="12" t="s">
+      <c r="A65" s="19"/>
+      <c r="B65" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="C65" s="17"/>
-      <c r="D65" s="14"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="19"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="14"/>
-      <c r="B66" s="12" t="s">
+      <c r="A66" s="19"/>
+      <c r="B66" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="C66" s="15" t="s">
+      <c r="C66" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="D66" s="16" t="s">
+      <c r="D66" s="13" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="14"/>
-      <c r="B67" s="12" t="s">
+      <c r="A67" s="19"/>
+      <c r="B67" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="C67" s="16" t="s">
+      <c r="C67" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="D67" s="16" t="s">
+      <c r="D67" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="28" x14ac:dyDescent="0.25">
-      <c r="A68" s="14"/>
-      <c r="B68" s="12" t="s">
+      <c r="A68" s="19"/>
+      <c r="B68" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="C68" s="15" t="s">
+      <c r="C68" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="D68" s="16" t="s">
+      <c r="D68" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="14"/>
-      <c r="B69" s="12" t="s">
+      <c r="A69" s="19"/>
+      <c r="B69" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="C69" s="15" t="s">
+      <c r="C69" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="D69" s="16" t="s">
+      <c r="D69" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="14"/>
-      <c r="B70" s="18" t="s">
+      <c r="A70" s="19"/>
+      <c r="B70" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="C70" s="15" t="s">
+      <c r="C70" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="D70" s="16" t="s">
+      <c r="D70" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="14"/>
-      <c r="B71" s="12" t="s">
+      <c r="A71" s="19"/>
+      <c r="B71" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="C71" s="15" t="s">
+      <c r="C71" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="D71" s="16" t="s">
+      <c r="D71" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="14"/>
-      <c r="B72" s="12" t="s">
+      <c r="A72" s="19"/>
+      <c r="B72" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="C72" s="15" t="s">
+      <c r="C72" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="D72" s="16" t="s">
+      <c r="D72" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="14"/>
-      <c r="B73" s="18" t="s">
+      <c r="A73" s="19"/>
+      <c r="B73" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="C73" s="15" t="s">
+      <c r="C73" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D73" s="16" t="s">
+      <c r="D73" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="14"/>
-      <c r="B74" s="12" t="s">
+      <c r="A74" s="19"/>
+      <c r="B74" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="C74" s="15" t="s">
+      <c r="C74" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="D74" s="16" t="s">
+      <c r="D74" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="28" x14ac:dyDescent="0.25">
-      <c r="A75" s="14"/>
-      <c r="B75" s="12" t="s">
+      <c r="A75" s="19"/>
+      <c r="B75" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="C75" s="15" t="s">
+      <c r="C75" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="D75" s="16" t="s">
+      <c r="D75" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="14"/>
-      <c r="B76" s="18" t="s">
+      <c r="A76" s="19"/>
+      <c r="B76" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="C76" s="15" t="s">
+      <c r="C76" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="D76" s="16" t="s">
+      <c r="D76" s="13" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="28" x14ac:dyDescent="0.25">
-      <c r="A77" s="14"/>
-      <c r="B77" s="12" t="s">
+      <c r="A77" s="19"/>
+      <c r="B77" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="C77" s="15" t="s">
+      <c r="C77" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="D77" s="16" t="s">
+      <c r="D77" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="14"/>
-      <c r="B78" s="12" t="s">
+      <c r="A78" s="19"/>
+      <c r="B78" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="C78" s="15" t="s">
+      <c r="C78" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="D78" s="16" t="s">
+      <c r="D78" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="14"/>
-      <c r="B79" s="12" t="s">
+      <c r="A79" s="19"/>
+      <c r="B79" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="C79" s="15" t="s">
+      <c r="C79" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="D79" s="16" t="s">
+      <c r="D79" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="14"/>
-      <c r="B80" s="12" t="s">
+      <c r="A80" s="19"/>
+      <c r="B80" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="C80" s="15" t="s">
+      <c r="C80" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="D80" s="16" t="s">
+      <c r="D80" s="13" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="14"/>
-      <c r="B81" s="12" t="s">
+      <c r="A81" s="19"/>
+      <c r="B81" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="C81" s="15" t="s">
+      <c r="C81" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="D81" s="16" t="s">
+      <c r="D81" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="14"/>
-      <c r="B82" s="18" t="s">
+      <c r="A82" s="19"/>
+      <c r="B82" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="C82" s="15" t="s">
+      <c r="C82" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="D82" s="16" t="s">
+      <c r="D82" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="14"/>
-      <c r="B83" s="12" t="s">
+      <c r="A83" s="19"/>
+      <c r="B83" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="C83" s="15" t="s">
+      <c r="C83" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="D83" s="16" t="s">
+      <c r="D83" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="14"/>
-      <c r="B84" s="12" t="s">
+      <c r="A84" s="19"/>
+      <c r="B84" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="C84" s="17" t="s">
+      <c r="C84" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="D84" s="14" t="s">
+      <c r="D84" s="19" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="14"/>
-      <c r="B85" s="12" t="s">
+      <c r="A85" s="19"/>
+      <c r="B85" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="C85" s="17"/>
-      <c r="D85" s="14"/>
+      <c r="C85" s="20"/>
+      <c r="D85" s="19"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="14"/>
-      <c r="B86" s="18" t="s">
+      <c r="A86" s="19"/>
+      <c r="B86" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="C86" s="17" t="s">
+      <c r="C86" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="D86" s="14" t="s">
+      <c r="D86" s="19" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="14"/>
-      <c r="B87" s="18" t="s">
+      <c r="A87" s="19"/>
+      <c r="B87" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="C87" s="17"/>
-      <c r="D87" s="14"/>
+      <c r="C87" s="20"/>
+      <c r="D87" s="19"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="14"/>
-      <c r="B88" s="18" t="s">
+      <c r="A88" s="19"/>
+      <c r="B88" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="C88" s="15" t="s">
+      <c r="C88" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="D88" s="16" t="s">
+      <c r="D88" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="14"/>
-      <c r="B89" s="12" t="s">
+      <c r="A89" s="19"/>
+      <c r="B89" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="C89" s="15" t="s">
+      <c r="C89" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="D89" s="16" t="s">
+      <c r="D89" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="14"/>
-      <c r="B90" s="12" t="s">
+      <c r="A90" s="19"/>
+      <c r="B90" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="C90" s="15" t="s">
+      <c r="C90" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="D90" s="16" t="s">
+      <c r="D90" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="14"/>
-      <c r="B91" s="18" t="s">
+      <c r="A91" s="19"/>
+      <c r="B91" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="C91" s="15" t="s">
+      <c r="C91" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="D91" s="16" t="s">
+      <c r="D91" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="42" x14ac:dyDescent="0.25">
-      <c r="A92" s="14"/>
-      <c r="B92" s="13" t="s">
+      <c r="A92" s="19"/>
+      <c r="B92" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="C92" s="4" t="s">
+      <c r="C92" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D92" s="16" t="s">
+      <c r="D92" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="28" x14ac:dyDescent="0.25">
-      <c r="A93" s="14"/>
-      <c r="B93" s="13" t="s">
+      <c r="A93" s="19"/>
+      <c r="B93" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="C93" s="4"/>
-      <c r="D93" s="16" t="s">
+      <c r="C93" s="18"/>
+      <c r="D93" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="14"/>
-      <c r="B94" s="19" t="s">
+      <c r="A94" s="19"/>
+      <c r="B94" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="C94" s="4"/>
-      <c r="D94" s="16" t="s">
+      <c r="C94" s="18"/>
+      <c r="D94" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="42" x14ac:dyDescent="0.25">
-      <c r="A95" s="14"/>
-      <c r="B95" s="13" t="s">
+      <c r="A95" s="19"/>
+      <c r="B95" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="C95" s="4"/>
-      <c r="D95" s="16" t="s">
+      <c r="C95" s="18"/>
+      <c r="D95" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="14"/>
-      <c r="B96" s="19" t="s">
+      <c r="A96" s="19"/>
+      <c r="B96" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="C96" s="4"/>
-      <c r="D96" s="16" t="s">
+      <c r="C96" s="18"/>
+      <c r="D96" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="70" x14ac:dyDescent="0.25">
-      <c r="A97" s="14"/>
-      <c r="B97" s="13" t="s">
+      <c r="A97" s="19"/>
+      <c r="B97" s="12" t="s">
         <v>213</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D97" s="16" t="s">
+      <c r="D97" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="28" x14ac:dyDescent="0.25">
-      <c r="A98" s="14"/>
-      <c r="B98" s="13" t="s">
+      <c r="A98" s="19"/>
+      <c r="B98" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="C98" s="4" t="s">
+      <c r="C98" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="D98" s="16" t="s">
+      <c r="D98" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="42" x14ac:dyDescent="0.25">
-      <c r="A99" s="14"/>
-      <c r="B99" s="13" t="s">
+      <c r="A99" s="19"/>
+      <c r="B99" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="C99" s="4"/>
-      <c r="D99" s="16" t="s">
+      <c r="C99" s="18"/>
+      <c r="D99" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="14"/>
-      <c r="B100" s="13" t="s">
+      <c r="A100" s="19"/>
+      <c r="B100" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="C100" s="4"/>
-      <c r="D100" s="16" t="s">
+      <c r="C100" s="18"/>
+      <c r="D100" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="56" x14ac:dyDescent="0.25">
-      <c r="A101" s="14"/>
-      <c r="B101" s="13" t="s">
+      <c r="A101" s="19"/>
+      <c r="B101" s="12" t="s">
         <v>217</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D101" s="16" t="s">
+      <c r="D101" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="14"/>
-      <c r="B102" s="13" t="s">
+      <c r="A102" s="19"/>
+      <c r="B102" s="12" t="s">
         <v>218</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D102" s="16" t="s">
+      <c r="D102" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="14"/>
-      <c r="B103" s="18" t="s">
+      <c r="A103" s="19"/>
+      <c r="B103" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="C103" s="4" t="s">
+      <c r="C103" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="D103" s="16" t="s">
+      <c r="D103" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="14"/>
-      <c r="B104" s="13" t="s">
+      <c r="A104" s="19"/>
+      <c r="B104" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="C104" s="4"/>
-      <c r="D104" s="16" t="s">
+      <c r="C104" s="18"/>
+      <c r="D104" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="14"/>
-      <c r="B105" s="18" t="s">
+      <c r="A105" s="19"/>
+      <c r="B105" s="15" t="s">
         <v>221</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D105" s="16" t="s">
+      <c r="D105" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="70" x14ac:dyDescent="0.25">
-      <c r="A106" s="14"/>
-      <c r="B106" s="13" t="s">
+      <c r="A106" s="19"/>
+      <c r="B106" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="C106" s="4" t="s">
+      <c r="C106" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="D106" s="16" t="s">
+      <c r="D106" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="42" x14ac:dyDescent="0.25">
-      <c r="A107" s="14"/>
-      <c r="B107" s="13" t="s">
+      <c r="A107" s="19"/>
+      <c r="B107" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="C107" s="4"/>
-      <c r="D107" s="16" t="s">
+      <c r="C107" s="18"/>
+      <c r="D107" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="14"/>
-      <c r="B108" s="18" t="s">
+      <c r="A108" s="19"/>
+      <c r="B108" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="C108" s="4"/>
-      <c r="D108" s="16" t="s">
+      <c r="C108" s="18"/>
+      <c r="D108" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="14"/>
-      <c r="B109" s="13" t="s">
+      <c r="A109" s="19"/>
+      <c r="B109" s="12" t="s">
         <v>224</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D109" s="16" t="s">
+      <c r="D109" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="14"/>
-      <c r="B110" s="13" t="s">
+      <c r="A110" s="19"/>
+      <c r="B110" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="C110" s="4" t="s">
+      <c r="C110" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="D110" s="16" t="s">
+      <c r="D110" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="111" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="14"/>
-      <c r="B111" s="18" t="s">
+      <c r="A111" s="19"/>
+      <c r="B111" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="C111" s="4"/>
-      <c r="D111" s="16" t="s">
+      <c r="C111" s="18"/>
+      <c r="D111" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="14"/>
-      <c r="B112" s="18" t="s">
+      <c r="A112" s="19"/>
+      <c r="B112" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="C112" s="4"/>
-      <c r="D112" s="16" t="s">
+      <c r="C112" s="18"/>
+      <c r="D112" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="14"/>
-      <c r="B113" s="18" t="s">
+      <c r="A113" s="19"/>
+      <c r="B113" s="15" t="s">
         <v>114</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D113" s="16" t="s">
+      <c r="D113" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="28" x14ac:dyDescent="0.25">
-      <c r="A114" s="14"/>
-      <c r="B114" s="13" t="s">
+      <c r="A114" s="19"/>
+      <c r="B114" s="12" t="s">
         <v>227</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D114" s="16" t="s">
+      <c r="D114" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="56" x14ac:dyDescent="0.25">
-      <c r="A115" s="14"/>
-      <c r="B115" s="13" t="s">
+      <c r="A115" s="19"/>
+      <c r="B115" s="12" t="s">
         <v>228</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="D115" s="16" t="s">
+      <c r="D115" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="14"/>
-      <c r="B116" s="13" t="s">
+      <c r="A116" s="19"/>
+      <c r="B116" s="12" t="s">
         <v>229</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D116" s="16" t="s">
+      <c r="D116" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="18"/>
+      <c r="B118" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="28" x14ac:dyDescent="0.25">
+      <c r="A119" s="18"/>
+      <c r="B119" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="28" x14ac:dyDescent="0.25">
+      <c r="A120" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="18"/>
+      <c r="B121" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="28" x14ac:dyDescent="0.25">
+      <c r="A122" s="18"/>
+      <c r="B122" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="18"/>
+      <c r="B123" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="28" x14ac:dyDescent="0.25">
+      <c r="A124" s="18"/>
+      <c r="B124" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="18"/>
+      <c r="B125" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="28" x14ac:dyDescent="0.25">
+      <c r="A126" s="18"/>
+      <c r="B126" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="28" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C127" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="28" x14ac:dyDescent="0.25">
+      <c r="A129" s="18"/>
+      <c r="B129" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C129" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D129" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="18"/>
+      <c r="B130" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C130" s="18"/>
+      <c r="D130" s="18"/>
+    </row>
+    <row r="131" spans="1:4" ht="28" x14ac:dyDescent="0.25">
+      <c r="A131" s="18"/>
+      <c r="B131" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="18"/>
+      <c r="B132" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="28" x14ac:dyDescent="0.25">
+      <c r="A133" s="18"/>
+      <c r="B133" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="18"/>
+      <c r="B134" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="28" x14ac:dyDescent="0.25">
+      <c r="A135" s="18"/>
+      <c r="B135" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="28" x14ac:dyDescent="0.25">
+      <c r="A136" s="18"/>
+      <c r="B136" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="28" x14ac:dyDescent="0.25">
+      <c r="A137" s="18"/>
+      <c r="B137" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="28" x14ac:dyDescent="0.25">
+      <c r="A138" s="18"/>
+      <c r="B138" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="28" x14ac:dyDescent="0.25">
+      <c r="A139" s="18"/>
+      <c r="B139" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="28" x14ac:dyDescent="0.25">
+      <c r="A140" s="18"/>
+      <c r="B140" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="18"/>
+      <c r="B141" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="18"/>
+      <c r="B142" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="18"/>
+      <c r="B143" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="28" x14ac:dyDescent="0.25">
+      <c r="A144" s="18"/>
+      <c r="B144" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="18"/>
+      <c r="B145" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="18"/>
+      <c r="B146" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="28" x14ac:dyDescent="0.25">
+      <c r="A147" s="18"/>
+      <c r="B147" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="18"/>
+      <c r="B148" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="18"/>
+      <c r="B149" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="18"/>
+      <c r="B150" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="18"/>
+      <c r="B151" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="18"/>
+      <c r="B152" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B153" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="18"/>
+      <c r="B154" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="18"/>
+      <c r="B155" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="18"/>
+      <c r="B156" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="18"/>
+      <c r="B157" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="28" x14ac:dyDescent="0.25">
+      <c r="A158" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B158" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="18"/>
+      <c r="B159" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="18"/>
+      <c r="B160" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="18"/>
+      <c r="B161" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="18"/>
+      <c r="B162" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="28" x14ac:dyDescent="0.25">
+      <c r="A163" s="18"/>
+      <c r="B163" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="18"/>
+      <c r="B164" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="18"/>
+      <c r="B165" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="18"/>
+      <c r="B166" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="28" x14ac:dyDescent="0.25">
+      <c r="A167" s="18"/>
+      <c r="B167" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="18"/>
+      <c r="B168" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="18"/>
+      <c r="B169" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="28" x14ac:dyDescent="0.25">
+      <c r="A170" s="18"/>
+      <c r="B170" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="18"/>
+      <c r="B171" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="28" x14ac:dyDescent="0.25">
+      <c r="A172" s="18"/>
+      <c r="B172" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="18"/>
+      <c r="B173" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="18"/>
+      <c r="B174" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="28" x14ac:dyDescent="0.25">
+      <c r="A175" s="18"/>
+      <c r="B175" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="18"/>
+      <c r="B176" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="18"/>
+      <c r="B177" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B178" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C178" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D178" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="19"/>
+      <c r="B179" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="C179" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D179" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="19"/>
+      <c r="B180" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="C180" s="20"/>
+      <c r="D180" s="19"/>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="19"/>
+      <c r="B181" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="C181" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D181" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="19"/>
+      <c r="B182" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="C182" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D182" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="28" x14ac:dyDescent="0.25">
+      <c r="A183" s="19"/>
+      <c r="B183" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="C183" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D183" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="19"/>
+      <c r="B184" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="C184" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D184" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="19"/>
+      <c r="B185" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="C185" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D185" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="19"/>
+      <c r="B186" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="C186" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D186" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="19"/>
+      <c r="B187" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="C187" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D187" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="19"/>
+      <c r="B188" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="C188" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D188" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="19"/>
+      <c r="B189" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="C189" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D189" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="28" x14ac:dyDescent="0.25">
+      <c r="A190" s="19"/>
+      <c r="B190" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="C190" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D190" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="19"/>
+      <c r="B191" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="C191" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D191" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="28" x14ac:dyDescent="0.25">
+      <c r="A192" s="19"/>
+      <c r="B192" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C192" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D192" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="19"/>
+      <c r="B193" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="C193" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D193" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="19"/>
+      <c r="B194" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C194" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D194" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" s="19"/>
+      <c r="B195" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="C195" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D195" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" s="19"/>
+      <c r="B196" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="C196" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D196" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" s="19"/>
+      <c r="B197" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="C197" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D197" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" s="19"/>
+      <c r="B198" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="C198" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D198" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" s="19"/>
+      <c r="B199" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="C199" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="D199" s="19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="19"/>
+      <c r="B200" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="C200" s="20"/>
+      <c r="D200" s="19"/>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" s="19"/>
+      <c r="B201" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="C201" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D201" s="19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" s="19"/>
+      <c r="B202" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="C202" s="20"/>
+      <c r="D202" s="19"/>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" s="19"/>
+      <c r="B203" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="C203" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="D203" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" s="19"/>
+      <c r="B204" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="C204" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D204" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" s="19"/>
+      <c r="B205" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="C205" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="D205" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" s="19"/>
+      <c r="B206" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="C206" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D206" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" ht="42" x14ac:dyDescent="0.25">
+      <c r="A207" s="19"/>
+      <c r="B207" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="C207" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="D207" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" ht="28" x14ac:dyDescent="0.25">
+      <c r="A208" s="19"/>
+      <c r="B208" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="C208" s="18"/>
+      <c r="D208" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" s="19"/>
+      <c r="B209" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="C209" s="18"/>
+      <c r="D209" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" ht="42" x14ac:dyDescent="0.25">
+      <c r="A210" s="19"/>
+      <c r="B210" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="C210" s="18"/>
+      <c r="D210" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" s="19"/>
+      <c r="B211" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="C211" s="18"/>
+      <c r="D211" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="70" x14ac:dyDescent="0.25">
+      <c r="A212" s="19"/>
+      <c r="B212" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D212" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" ht="28" x14ac:dyDescent="0.25">
+      <c r="A213" s="19"/>
+      <c r="B213" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="C213" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="D213" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" ht="42" x14ac:dyDescent="0.25">
+      <c r="A214" s="19"/>
+      <c r="B214" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="C214" s="18"/>
+      <c r="D214" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" s="19"/>
+      <c r="B215" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="C215" s="18"/>
+      <c r="D215" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" ht="56" x14ac:dyDescent="0.25">
+      <c r="A216" s="19"/>
+      <c r="B216" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D216" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" s="19"/>
+      <c r="B217" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D217" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" s="19"/>
+      <c r="B218" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="C218" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D218" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" s="19"/>
+      <c r="B219" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="C219" s="18"/>
+      <c r="D219" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" s="19"/>
+      <c r="B220" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="C220" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D220" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" ht="70" x14ac:dyDescent="0.25">
+      <c r="A221" s="19"/>
+      <c r="B221" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="C221" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="D221" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" ht="42" x14ac:dyDescent="0.25">
+      <c r="A222" s="19"/>
+      <c r="B222" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="C222" s="18"/>
+      <c r="D222" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" s="19"/>
+      <c r="B223" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C223" s="18"/>
+      <c r="D223" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" s="19"/>
+      <c r="B224" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D224" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225" s="19"/>
+      <c r="B225" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="C225" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="D225" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" s="19"/>
+      <c r="B226" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="C226" s="18"/>
+      <c r="D226" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227" s="19"/>
+      <c r="B227" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C227" s="18"/>
+      <c r="D227" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228" s="19"/>
+      <c r="B228" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C228" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D228" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" ht="28" x14ac:dyDescent="0.25">
+      <c r="A229" s="19"/>
+      <c r="B229" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="C229" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D229" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" ht="56" x14ac:dyDescent="0.25">
+      <c r="A230" s="19"/>
+      <c r="B230" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="C230" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D230" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" s="19"/>
+      <c r="B231" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="C231" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D231" s="13" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A11"/>
-    <mergeCell ref="A13:A37"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="A43:A62"/>
+  <mergeCells count="38">
+    <mergeCell ref="A153:A157"/>
+    <mergeCell ref="A158:A177"/>
+    <mergeCell ref="A178:A231"/>
+    <mergeCell ref="C179:C180"/>
+    <mergeCell ref="D179:D180"/>
+    <mergeCell ref="C199:C200"/>
+    <mergeCell ref="D199:D200"/>
+    <mergeCell ref="C201:C202"/>
+    <mergeCell ref="D201:D202"/>
+    <mergeCell ref="C207:C211"/>
+    <mergeCell ref="C213:C215"/>
+    <mergeCell ref="C218:C219"/>
+    <mergeCell ref="C221:C223"/>
+    <mergeCell ref="C225:C227"/>
+    <mergeCell ref="A117:A119"/>
+    <mergeCell ref="A120:A126"/>
+    <mergeCell ref="A128:A152"/>
+    <mergeCell ref="C129:C130"/>
+    <mergeCell ref="D129:D130"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="D64:D65"/>
     <mergeCell ref="D84:D85"/>
@@ -5369,6 +6877,11 @@
     <mergeCell ref="C103:C104"/>
     <mergeCell ref="C106:C108"/>
     <mergeCell ref="C110:C112"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A11"/>
+    <mergeCell ref="A13:A37"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="A43:A62"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
